--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_24.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>877808.089185598</v>
+        <v>880058.848702598</v>
       </c>
     </row>
     <row r="7">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>169.0708280266249</v>
+      </c>
+      <c r="G2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D2" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>6.876045741711437</v>
-      </c>
-      <c r="G2" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="H2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>146.8920447697784</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>113.950365236779</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.25978647510158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.334965129218968</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>205.5178444382804</v>
@@ -905,10 +905,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G5" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -984,19 +984,19 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>95.12825899210648</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>133.8586059292223</v>
       </c>
     </row>
     <row r="7">
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>14.83685490770588</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>153.7680905114898</v>
       </c>
       <c r="G8" t="n">
-        <v>169.0708280266249</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>165.3371871606759</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>119.0247444220177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1379,64 +1379,64 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>8.438698031532754</v>
       </c>
       <c r="D12" t="n">
-        <v>61.8547720681299</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -1464,13 +1464,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1619,61 +1619,61 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H14" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,25 +1686,25 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>7.692106705274854</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1734,19 +1734,19 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>13.9434706946005</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1807,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>24.75543250779077</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1850,58 +1850,58 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>19.72793538656374</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,25 +1923,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2081,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>190.3453970742847</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2123,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.234466016111892</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2160,22 +2160,22 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>31.60815104066432</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2211,10 +2211,10 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>111.1939927714464</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2278,13 +2278,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
@@ -2381,7 +2381,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2403,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>10.79001914712992</v>
+        <v>59.24636080559989</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,40 +2488,40 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2555,10 +2555,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2570,13 +2570,13 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,10 +2649,10 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -2691,13 +2691,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>210.01624660956</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>71.64885309469996</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,7 +2722,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2795,67 +2795,67 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G29" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,19 +2880,19 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>103.9917919211018</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>26.27111766073024</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2919,22 +2919,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3038,7 +3038,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>202.2946864288972</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>69.03881051849277</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3162,16 +3162,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>182.7764307090104</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3241,13 +3241,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3308,19 +3308,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
-        <v>102.3382270926889</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3348,10 +3348,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>149.3895849832727</v>
       </c>
       <c r="Y36" t="n">
-        <v>200.8531994405235</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>241.0142888776591</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3588,10 +3588,10 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>56.96494961966629</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>60.09118670082915</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="T41" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U41" t="n">
         <v>205.5178444382804</v>
@@ -3800,7 +3800,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3819,7 +3819,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>125.2000597604661</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,10 +3834,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>68.61277235901568</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4122,7 +4122,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>149.036610503664</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="46">
@@ -4150,7 +4150,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4195,7 +4195,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>673.6955749553657</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C2" t="n">
-        <v>466.1017926944764</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D2" t="n">
-        <v>258.5080104335871</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E2" t="n">
-        <v>258.5080104335871</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F2" t="n">
-        <v>251.5625096843836</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="G2" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H2" t="n">
         <v>28.51141680214578</v>
@@ -4334,13 +4334,13 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
         <v>732.4113224610707</v>
@@ -4352,28 +4352,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>673.6955749553657</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>673.6955749553657</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>673.6955749553657</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U2" t="n">
-        <v>673.6955749553657</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V2" t="n">
-        <v>673.6955749553657</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W2" t="n">
-        <v>673.6955749553657</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X2" t="n">
-        <v>673.6955749553657</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y2" t="n">
-        <v>673.6955749553657</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>613.1895897481025</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C3" t="n">
-        <v>438.7365604669756</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D3" t="n">
-        <v>289.8021508057243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G3" t="n">
-        <v>130.5646958002688</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H3" t="n">
         <v>17.19556020784815</v>
@@ -4410,49 +4410,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L3" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M3" t="n">
-        <v>345.7514872519972</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N3" t="n">
-        <v>549.2141532458947</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O3" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="V3" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="W3" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="X3" t="n">
-        <v>822.0713777531216</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y3" t="n">
-        <v>781.4049267681705</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="4">
@@ -4510,7 +4510,7 @@
         <v>148.224788009872</v>
       </c>
       <c r="R4" t="n">
-        <v>148.224788009872</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
         <v>16.44142755506243</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="C5" t="n">
-        <v>658.2382643340171</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="D5" t="n">
-        <v>450.6444820731278</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="E5" t="n">
-        <v>243.0506998122385</v>
+        <v>396.792197863116</v>
       </c>
       <c r="F5" t="n">
-        <v>236.1051990630351</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I5" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J5" t="n">
         <v>16.44142755506243</v>
@@ -4577,10 +4577,10 @@
         <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4589,28 +4589,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="Y5" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>547.4845037566762</v>
+        <v>417.4757982261189</v>
       </c>
       <c r="C6" t="n">
-        <v>547.4845037566762</v>
+        <v>417.4757982261189</v>
       </c>
       <c r="D6" t="n">
-        <v>398.5500940954249</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="E6" t="n">
-        <v>398.5500940954249</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="F6" t="n">
-        <v>252.0155361223099</v>
+        <v>268.5413885648676</v>
       </c>
       <c r="G6" t="n">
-        <v>113.2847107049254</v>
+        <v>129.8105631474831</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
         <v>435.9652341458732</v>
@@ -4671,25 +4671,25 @@
         <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="X6" t="n">
-        <v>547.4845037566762</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="Y6" t="n">
-        <v>547.4845037566762</v>
+        <v>585.6911352461868</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="C7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="D7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="E7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4753,22 +4753,22 @@
         <v>148.224788009872</v>
       </c>
       <c r="T7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="U7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="V7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="W7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="X7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="Y7" t="n">
-        <v>148.224788009872</v>
+        <v>133.2380658808762</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>43.96872742349432</v>
       </c>
       <c r="G8" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>236.1051990630351</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
         <v>28.51141680214578</v>
@@ -4805,19 +4805,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4829,25 +4829,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T8" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U8" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="V8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>190.8944568361894</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="D9" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="E9" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F9" t="n">
-        <v>16.44142755506243</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44142755506243</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44142755506243</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I9" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J9" t="n">
         <v>16.44142755506243</v>
@@ -4890,10 +4890,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M9" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N9" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O9" t="n">
         <v>570.0333416264414</v>
@@ -4905,28 +4905,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>518.7152536647734</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="U9" t="n">
-        <v>311.1214714038841</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="V9" t="n">
-        <v>311.1214714038841</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="W9" t="n">
-        <v>311.1214714038841</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="X9" t="n">
-        <v>311.1214714038841</v>
+        <v>655.0641179948632</v>
       </c>
       <c r="Y9" t="n">
-        <v>190.8944568361894</v>
+        <v>655.0641179948632</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>148.224788009872</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="T10" t="n">
-        <v>148.224788009872</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="U10" t="n">
-        <v>148.224788009872</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="V10" t="n">
-        <v>148.224788009872</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="W10" t="n">
-        <v>148.224788009872</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="X10" t="n">
-        <v>148.224788009872</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>811.9797623848946</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>811.9797623848946</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>639.2227743377304</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5042,13 +5042,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5060,31 +5060,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y11" t="n">
-        <v>811.9797623848946</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>614.4775954922324</v>
+        <v>813.547440347533</v>
       </c>
       <c r="D12" t="n">
-        <v>551.9980277466466</v>
+        <v>664.6130306862817</v>
       </c>
       <c r="E12" t="n">
-        <v>392.7605727411911</v>
+        <v>505.3755756808262</v>
       </c>
       <c r="F12" t="n">
-        <v>246.2260147680761</v>
+        <v>358.8410177077111</v>
       </c>
       <c r="G12" t="n">
-        <v>107.4951893506917</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,13 +5124,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N12" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
         <v>570.0333416264414</v>
@@ -5160,10 +5160,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C14" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="D14" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="E14" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="F14" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="G14" t="n">
-        <v>189.1984156022267</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>811.9797623848946</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W14" t="n">
-        <v>604.3859801240053</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X14" t="n">
-        <v>604.3859801240053</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.792197863116</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>814.3015730003187</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5364,16 +5364,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5382,25 +5382,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S15" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>446.4674385625565</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U15" t="n">
-        <v>238.8736563016672</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>31.27987404077794</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.19556020784815</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5455,31 +5455,31 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E17" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F17" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H17" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5540,25 +5540,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5598,46 +5598,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5695,25 +5695,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D20" t="n">
-        <v>518.2486856454962</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E20" t="n">
         <v>274.7999090013961</v>
@@ -5741,7 +5741,7 @@
         <v>274.7999090013961</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H20" t="n">
         <v>31.35113235729608</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>954.7294120600181</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>954.7294120600181</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>743.5980286395683</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V20" t="n">
-        <v>518.2486856454962</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W20" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X20" t="n">
-        <v>518.2486856454962</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y20" t="n">
-        <v>518.2486856454962</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51.20856840381305</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="C21" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5859,22 +5859,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="U21" t="n">
-        <v>259.0600686093459</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="V21" t="n">
-        <v>259.0600686093459</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="W21" t="n">
-        <v>259.0600686093459</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="X21" t="n">
-        <v>51.20856840381305</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="Y21" t="n">
-        <v>51.20856840381305</v>
+        <v>577.1531170985884</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5884,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5926,34 +5926,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>593.6552238493341</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C24" t="n">
-        <v>419.2021945682071</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D24" t="n">
-        <v>419.2021945682071</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="E24" t="n">
-        <v>259.9647395627516</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="F24" t="n">
-        <v>259.9647395627516</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="G24" t="n">
-        <v>121.2339141453671</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="H24" t="n">
         <v>110.334904905842</v>
@@ -6069,10 +6069,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M24" t="n">
         <v>234.810827406191</v>
@@ -6096,22 +6096,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X24" t="n">
-        <v>761.8705608694022</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y24" t="n">
-        <v>761.8705608694022</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C26" t="n">
-        <v>467.067986854209</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="D26" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E26" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>467.067986854209</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>223.6192102101089</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6248,28 +6248,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W26" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X26" t="n">
-        <v>710.516763498309</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y26" t="n">
-        <v>710.516763498309</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>269.5723599112974</v>
+        <v>307.8574406365461</v>
       </c>
       <c r="C27" t="n">
-        <v>269.5723599112974</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="D27" t="n">
-        <v>269.5723599112974</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="E27" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="F27" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G27" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
         <v>20.03527576299844</v>
@@ -6312,10 +6312,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
         <v>781.4136778972854</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>477.3326586762514</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>477.3326586762514</v>
+        <v>891.6845766271009</v>
       </c>
       <c r="X27" t="n">
-        <v>477.3326586762514</v>
+        <v>683.8330764215681</v>
       </c>
       <c r="Y27" t="n">
-        <v>269.5723599112974</v>
+        <v>476.0727776566142</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>310.5702840197694</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="C30" t="n">
-        <v>136.1172547386423</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="D30" t="n">
-        <v>136.1172547386423</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="E30" t="n">
-        <v>136.1172547386423</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="F30" t="n">
-        <v>136.1172547386423</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>136.1172547386423</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6546,13 +6546,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N30" t="n">
-        <v>781.4136778972854</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6567,25 +6567,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>761.8705608694022</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>761.8705608694022</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>761.8705608694022</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>518.4217842253022</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="X30" t="n">
-        <v>310.5702840197694</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="Y30" t="n">
-        <v>310.5702840197694</v>
+        <v>125.0774898247174</v>
       </c>
     </row>
     <row r="31">
@@ -6652,7 +6652,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6677,13 +6677,13 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6722,28 +6722,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V32" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.7299197543128</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>89.01731535111452</v>
+        <v>168.215552771464</v>
       </c>
       <c r="C33" t="n">
-        <v>89.01731535111452</v>
+        <v>168.215552771464</v>
       </c>
       <c r="D33" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>89.01731535111452</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6780,19 +6780,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>544.2823899970649</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>336.430889791532</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>336.430889791532</v>
       </c>
     </row>
     <row r="34">
@@ -6889,10 +6889,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
         <v>19.28114311021272</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="C35" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="D35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6956,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>591.4512093066566</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -6990,46 +6990,46 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>592.9597988536757</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C36" t="n">
-        <v>418.5067695725487</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>269.5723599112974</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7053,13 +7053,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W36" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X36" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y36" t="n">
-        <v>761.1751358737438</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="37">
@@ -7208,16 +7208,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X38" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y38" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>668.2068788942177</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="C39" t="n">
-        <v>668.2068788942177</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="D39" t="n">
-        <v>668.2068788942177</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>419.9752190668252</v>
       </c>
       <c r="F39" t="n">
         <v>362.4348659156472</v>
@@ -7254,19 +7254,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N39" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P39" t="n">
         <v>894.6625969973069</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>903.3589871259603</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>903.3589871259603</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>903.3589871259603</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U39" t="n">
-        <v>903.3589871259603</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>668.2068788942177</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W39" t="n">
-        <v>668.2068788942177</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="X39" t="n">
-        <v>668.2068788942177</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="Y39" t="n">
-        <v>668.2068788942177</v>
+        <v>419.9752190668252</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>877.0247885897328</v>
       </c>
     </row>
     <row r="41">
@@ -7415,7 +7415,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7436,16 +7436,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S41" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U41" t="n">
-        <v>431.628992076841</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W41" t="n">
         <v>16.44142755506243</v>
@@ -7464,25 +7464,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>350.4999166447054</v>
+        <v>142.9061343838161</v>
       </c>
       <c r="C42" t="n">
-        <v>176.0468873635783</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>176.0468873635783</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>176.0468873635783</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>176.0468873635783</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0468873635783</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>106.7410566979059</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
         <v>16.44142755506243</v>
@@ -7491,16 +7491,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>29.03990215807806</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>232.5025681519757</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O42" t="n">
         <v>639.4279001397708</v>
@@ -7533,7 +7533,7 @@
         <v>518.7152536647734</v>
       </c>
       <c r="Y42" t="n">
-        <v>518.7152536647734</v>
+        <v>311.1214714038841</v>
       </c>
     </row>
     <row r="43">
@@ -7652,10 +7652,10 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
         <v>583.2163723184226</v>
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>155.1722529724469</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C45" t="n">
-        <v>155.1722529724469</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D45" t="n">
-        <v>155.1722529724469</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E45" t="n">
-        <v>155.1722529724469</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F45" t="n">
-        <v>155.1722529724469</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="G45" t="n">
-        <v>16.44142755506243</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="H45" t="n">
         <v>16.44142755506243</v>
@@ -7734,16 +7734,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N45" t="n">
-        <v>435.9652341458732</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7770,7 +7770,7 @@
         <v>305.7142837842288</v>
       </c>
       <c r="Y45" t="n">
-        <v>155.1722529724469</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="46">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="H46" t="n">
         <v>687.5390872628509</v>
@@ -7843,13 +7843,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7982,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7991,7 +7991,7 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>269.2526134200356</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8225,13 +8225,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>401.0105146732905</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8453,13 +8453,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8468,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8538,13 +8538,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N9" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>290.7443071551351</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8690,16 +8690,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,16 +8772,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>164.1205091169155</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,7 +9012,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9021,10 +9021,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9246,22 +9246,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O18" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,13 +9717,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10194,16 +10194,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>303.774711870172</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10428,22 +10428,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10665,22 +10665,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,22 +10902,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11063,10 +11063,10 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11139,19 +11139,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>151.2801117021122</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11300,13 +11300,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11382,19 +11382,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>222.9614904056321</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>235.8466275750189</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23300,7 +23300,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23337,10 +23337,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>164.269800956783</v>
       </c>
       <c r="D12" t="n">
-        <v>85.59029349650885</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -23352,13 +23352,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23400,7 +23400,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>168.4453839490745</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,7 +23537,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23552,16 +23552,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W14" t="n">
         <v>143.7231242791326</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23574,25 +23574,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>165.0163922830409</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23622,19 +23622,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>237.7515124663191</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>152.5379588693787</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23738,19 +23738,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>169.6449844288198</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23780,16 +23780,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,25 +23811,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>26.5151993764422</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23935,7 +23935,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23956,7 +23956,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23969,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>174.9274946967228</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,16 +24011,16 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.7562331984329127</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,13 +24029,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,22 +24048,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>141.1003479476514</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -24099,10 +24099,10 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>88.97073592337523</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>68.91450442245211</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24151,7 +24151,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24166,13 +24166,13 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24221,7 +24221,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>127.189416472325</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,7 +24260,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
@@ -24269,7 +24269,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24291,16 +24291,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>101.4454250893666</v>
+        <v>52.98908343089657</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24336,7 +24336,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24409,7 +24409,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S25" t="n">
         <v>224.0165980369723</v>
@@ -24443,10 +24443,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>314.2067624875478</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24458,13 +24458,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
-        <v>8.181203141508689</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24506,10 +24506,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,10 +24537,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,10 +24567,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
@@ -24579,13 +24579,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>22.78434053986524</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>180.0461300662196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24652,7 +24652,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24683,16 +24683,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>203.0173518716929</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24722,28 +24722,28 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>358.5380445222895</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24759,7 +24759,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,19 +24768,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>41.0774204722821</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>85.96432657576622</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24807,22 +24807,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24892,10 +24892,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,10 +24914,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>312.3898338622054</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24926,7 +24926,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24962,13 +24962,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>20.80116313523413</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24980,7 +24980,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24999,7 +24999,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,7 +25008,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>68.30470664471787</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25050,16 +25050,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>68.91855245190925</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25129,13 +25129,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25154,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25196,19 +25196,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>149.0074258151476</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25236,10 +25236,10 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25251,10 +25251,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25293,13 +25293,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>56.38340022020478</v>
       </c>
       <c r="Y36" t="n">
-        <v>4.829496336780863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>124.2586028933485</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25476,10 +25476,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>88.10426277371759</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>40.06664745181399</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25549,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.2218967649542</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25600,7 +25600,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25676,10 +25676,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>209.0200695862453</v>
+        <v>27.99995220500799</v>
       </c>
       <c r="T41" t="n">
-        <v>42.075732182894</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
         <v>45.82780846955609</v>
@@ -25688,7 +25688,7 @@
         <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25707,7 +25707,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>47.50843922784962</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,10 +25722,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>43.62267187748078</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25773,7 +25773,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25956,10 +25956,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>31.3731610079022</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -26010,7 +26010,7 @@
         <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>56.64608527364035</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26038,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26083,7 +26083,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418414.8500318925</v>
+        <v>418414.8500318924</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418414.8500318925</v>
+        <v>418414.8500318924</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418414.8500318925</v>
+        <v>418414.8500318924</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="E2" t="n">
         <v>189309.170201918</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.170201918</v>
+        <v>189309.1702019179</v>
       </c>
       <c r="G2" t="n">
         <v>199392.8070375988</v>
       </c>
       <c r="H2" t="n">
+        <v>199392.8070375987</v>
+      </c>
+      <c r="I2" t="n">
         <v>199392.8070375988</v>
-      </c>
-      <c r="I2" t="n">
-        <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="L2" t="n">
         <v>199392.8070375987</v>
@@ -26347,10 +26347,10 @@
         <v>199392.8070375988</v>
       </c>
       <c r="N2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="O2" t="n">
-        <v>189309.1702019179</v>
+        <v>189309.170201918</v>
       </c>
       <c r="P2" t="n">
         <v>189309.170201918</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179307</v>
       </c>
       <c r="C4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179307</v>
       </c>
       <c r="D4" t="n">
-        <v>344526.7929117181</v>
+        <v>344263.9595179308</v>
       </c>
       <c r="E4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.08537048259</v>
       </c>
       <c r="F4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="G4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="H4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="I4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
-        <v>59029.60829747977</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.582499173</v>
       </c>
       <c r="L4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="M4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
-        <v>59029.60829747976</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="O4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
       <c r="P4" t="n">
-        <v>55988.91876427001</v>
+        <v>55726.0853704826</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33101.4274833148</v>
+        <v>33364.26087710209</v>
       </c>
       <c r="C6" t="n">
-        <v>101975.1840650044</v>
+        <v>102238.0174587919</v>
       </c>
       <c r="D6" t="n">
-        <v>101975.1840650046</v>
+        <v>102238.017458792</v>
       </c>
       <c r="E6" t="n">
-        <v>120824.7664958005</v>
+        <v>121087.5998895879</v>
       </c>
       <c r="F6" t="n">
-        <v>120824.7664958005</v>
+        <v>121087.5998895879</v>
       </c>
       <c r="G6" t="n">
-        <v>115980.4870021903</v>
+        <v>116257.512800497</v>
       </c>
       <c r="H6" t="n">
-        <v>125709.5299763573</v>
+        <v>125986.5557746641</v>
       </c>
       <c r="I6" t="n">
-        <v>125709.5299763573</v>
+        <v>125986.5557746641</v>
       </c>
       <c r="J6" t="n">
-        <v>71937.01908614786</v>
+        <v>72214.0448844546</v>
       </c>
       <c r="K6" t="n">
-        <v>125709.5299763573</v>
+        <v>125986.5557746641</v>
       </c>
       <c r="L6" t="n">
-        <v>125709.5299763573</v>
+        <v>125986.555774664</v>
       </c>
       <c r="M6" t="n">
-        <v>125709.5299763574</v>
+        <v>125986.5557746641</v>
       </c>
       <c r="N6" t="n">
-        <v>125709.5299763573</v>
+        <v>125986.5557746641</v>
       </c>
       <c r="O6" t="n">
-        <v>120824.7664958005</v>
+        <v>121087.5998895879</v>
       </c>
       <c r="P6" t="n">
-        <v>120824.7664958005</v>
+        <v>121087.5998895879</v>
       </c>
     </row>
   </sheetData>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>237.8052177150865</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H2" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
         <v>210.4758895704059</v>
@@ -27424,7 +27424,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>2.97707317137133</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,7 +27473,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>86.21436345804264</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.4229093022028</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27582,10 +27582,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>46.82786452690797</v>
       </c>
       <c r="S4" t="n">
-        <v>93.55107118671074</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>362.9379266417886</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>149.1651971824026</v>
@@ -27625,10 +27625,10 @@
         <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G5" t="n">
-        <v>209.7848930768546</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -27704,19 +27704,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>17.10718524438998</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>71.82408984808211</v>
       </c>
     </row>
     <row r="7">
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>37.22501299855259</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.9909793584588</v>
@@ -27795,7 +27795,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>213.1087345205756</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>253.1079552302216</v>
       </c>
       <c r="G8" t="n">
-        <v>246.2319094885102</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,19 +27901,19 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27932,28 +27932,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>34.82754153414575</v>
       </c>
       <c r="U9" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>86.65795135528663</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28032,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>184.188810568277</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>88.11912650183328</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -34702,7 +34702,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34711,7 +34711,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
         <v>90.5657124162131</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>127.1185794980173</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34945,13 +34945,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35173,13 +35173,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35188,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35258,13 +35258,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35410,16 +35410,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,16 +35492,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O12" t="n">
-        <v>21.52426467247106</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35741,10 +35741,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,7 +35890,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,22 +35966,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36206,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36680,13 +36680,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36914,16 +36914,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37783,10 +37783,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38020,13 +38020,13 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38102,19 +38102,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_24.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>880058.848702598</v>
+        <v>880930.9892495372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1151840.918742178</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14829673.35797656</v>
+        <v>14661612.74404855</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6644529.410126831</v>
+        <v>6702577.348639146</v>
       </c>
     </row>
     <row r="11">
@@ -656,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>169.0708280266249</v>
+        <v>21.84039882228386</v>
       </c>
       <c r="G2" t="n">
-        <v>205.5178444382804</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>46.38724422570589</v>
       </c>
       <c r="T3" t="n">
-        <v>113.950365236779</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -820,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.170977004479174</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -899,16 +901,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5178444382804</v>
+        <v>232.3303155802432</v>
       </c>
       <c r="G5" t="n">
-        <v>171.0294181666926</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -987,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1029,19 +1031,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>162.5320513878378</v>
       </c>
       <c r="Y6" t="n">
-        <v>133.8586059292223</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>14.83685490770588</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1136,13 +1138,13 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>153.7680905114898</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>15.30273751513505</v>
@@ -1175,25 +1177,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1209,22 +1211,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>165.3371871606759</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1278,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>135.9049866160226</v>
       </c>
     </row>
     <row r="10">
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1424,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>8.438698031532754</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>49.31110394229523</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1506,16 +1508,16 @@
         <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1664,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,7 +1688,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
@@ -1701,7 +1703,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>84.97365353379641</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>17.55829564281241</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -1862,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,10 +1891,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="S17" t="n">
-        <v>19.72793538656374</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
         <v>223.0958495641314</v>
@@ -1920,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>120.9298661881966</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>120.9298661881966</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
-      </c>
-      <c r="X19" t="n">
-        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2081,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>190.3453970742847</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,13 +2098,13 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2126,28 +2128,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2166,19 +2168,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>115.2257300035334</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>111.1939927714464</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2220,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2263,7 +2265,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2318,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2360,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>241.0142888776591</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>91.00671443664322</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2412,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>59.24636080559989</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2555,73 +2557,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>40.47627913313511</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2640,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>49.23175083062949</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2649,13 +2651,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2694,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>71.64885309469996</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2722,52 +2724,52 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2834,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X29" t="n">
-        <v>11.19305615617957</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,16 +2882,16 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>103.9917919211018</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>87.77708186794605</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3026,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="E32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3105,31 +3107,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>92.72704515543269</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3159,19 +3161,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>182.7764307090104</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3266,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>241.0142888776591</v>
@@ -3342,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X36" t="n">
-        <v>149.3895849832727</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3463,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3503,73 +3505,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
       <c r="V38" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>19.7279353865638</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3591,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>56.96494961966629</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -3630,10 +3632,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>147.5273389876607</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3648,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3661,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>47.02492433367365</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3788,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>205.5178444382804</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3816,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>125.2000597604661</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>95.69252486072465</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -3885,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>171.0294181666926</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4037,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4068,16 +4070,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>80.86228322859426</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>32.53272969201343</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4116,13 +4118,13 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -4150,46 +4152,46 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
+        <v>0</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
-      </c>
-      <c r="T46" t="n">
-        <v>0</v>
-      </c>
-      <c r="U46" t="n">
-        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>406.8838132313431</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="D2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="E2" t="n">
-        <v>406.8838132313431</v>
+        <v>95.85238145955221</v>
       </c>
       <c r="F2" t="n">
-        <v>236.1051990630351</v>
+        <v>73.79137254815437</v>
       </c>
       <c r="G2" t="n">
-        <v>28.51141680214578</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="H2" t="n">
-        <v>28.51141680214578</v>
+        <v>58.33406192680583</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="J2" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>163.2132134803467</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>214.050116039799</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P2" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>203.9585006715719</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="W2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="X2" t="n">
-        <v>822.0713777531216</v>
+        <v>149.9054410655621</v>
       </c>
       <c r="Y2" t="n">
-        <v>614.4775954922324</v>
+        <v>149.9054410655621</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="C3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="D3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="E3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="F3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="G3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="H3" t="n">
-        <v>17.19556020784815</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="I3" t="n">
-        <v>17.19556020784815</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="J3" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>57.25840604064623</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>110.2358097604965</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="Q3" t="n">
-        <v>822.0713777531216</v>
+        <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>159.9970564337892</v>
       </c>
       <c r="S3" t="n">
-        <v>547.4845037566762</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="T3" t="n">
-        <v>432.3831247296267</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
-        <v>224.7893424687375</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="V3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="W3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="X3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.19556020784815</v>
+        <v>113.1412541856014</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>31.59512732850896</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>70.78316552073113</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>114.4740161761674</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>138.8132928110667</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>148.224788009872</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>136.0643627756056</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>811.9797623848946</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="C5" t="n">
-        <v>811.9797623848946</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="D5" t="n">
-        <v>604.3859801240053</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="E5" t="n">
-        <v>396.792197863116</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="F5" t="n">
-        <v>189.1984156022267</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>16.44142755506243</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>811.9797623848946</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>811.9797623848946</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T5" t="n">
-        <v>811.9797623848946</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U5" t="n">
-        <v>811.9797623848946</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V5" t="n">
-        <v>811.9797623848946</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W5" t="n">
-        <v>811.9797623848946</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X5" t="n">
-        <v>811.9797623848946</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y5" t="n">
-        <v>811.9797623848946</v>
+        <v>509.4769954460863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>417.4757982261189</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C6" t="n">
-        <v>417.4757982261189</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D6" t="n">
-        <v>268.5413885648676</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E6" t="n">
-        <v>268.5413885648676</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F6" t="n">
-        <v>268.5413885648676</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G6" t="n">
-        <v>129.8105631474831</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>720.9018483060073</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>720.9018483060073</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>720.9018483060073</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W6" t="n">
-        <v>720.9018483060073</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X6" t="n">
-        <v>720.9018483060073</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y6" t="n">
-        <v>585.6911352461868</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>148.224788009872</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>133.2380658808762</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>133.2380658808762</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>133.2380658808762</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>133.2380658808762</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>133.2380658808762</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>133.2380658808762</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.2900309704538</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="C8" t="n">
-        <v>199.2900309704538</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="D8" t="n">
-        <v>199.2900309704538</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E8" t="n">
-        <v>199.2900309704538</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F8" t="n">
-        <v>43.96872742349432</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>28.51141680214578</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U8" t="n">
-        <v>614.4775954922324</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V8" t="n">
-        <v>406.8838132313431</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W8" t="n">
-        <v>199.2900309704538</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="X8" t="n">
-        <v>199.2900309704538</v>
+        <v>297.2027203719481</v>
       </c>
       <c r="Y8" t="n">
-        <v>199.2900309704538</v>
+        <v>297.2027203719481</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>655.0641179948632</v>
+        <v>557.3945247848451</v>
       </c>
       <c r="C9" t="n">
-        <v>655.0641179948632</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="D9" t="n">
-        <v>506.1297083336119</v>
+        <v>382.9414955037181</v>
       </c>
       <c r="E9" t="n">
-        <v>506.1297083336119</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>359.5951503604969</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>220.8643249431123</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>16.44142755506243</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>163.1080096386462</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>366.5706756325438</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T9" t="n">
-        <v>655.0641179948632</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U9" t="n">
-        <v>655.0641179948632</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V9" t="n">
-        <v>655.0641179948632</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W9" t="n">
-        <v>655.0641179948632</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X9" t="n">
-        <v>655.0641179948632</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y9" t="n">
-        <v>655.0641179948632</v>
+        <v>725.6098618049132</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>110.7436296931158</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>110.7436296931158</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>224.0352098159517</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y11" t="n">
-        <v>406.8838132313431</v>
+        <v>233.7108255783361</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="C12" t="n">
-        <v>813.547440347533</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="D12" t="n">
-        <v>664.6130306862817</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="E12" t="n">
-        <v>505.3755756808262</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="F12" t="n">
-        <v>358.8410177077111</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="G12" t="n">
-        <v>220.1101922903266</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="H12" t="n">
-        <v>106.7410566979059</v>
+        <v>69.84447166430675</v>
       </c>
       <c r="I12" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>366.5706756325438</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>69.84447166430675</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K13" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>199.2900309704538</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C14" t="n">
-        <v>199.2900309704538</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D14" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E14" t="n">
-        <v>199.2900309704538</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>822.0713777531216</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>614.4775954922324</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>406.8838132313431</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>199.2900309704538</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y14" t="n">
-        <v>199.2900309704538</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J15" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>345.2616536067974</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N15" t="n">
-        <v>548.724319600695</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O15" t="n">
-        <v>752.1869855945927</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
         <v>19.28114311021272</v>
@@ -5537,28 +5539,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S17" t="n">
-        <v>944.1299480494607</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>718.7806050553886</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>475.3318284112885</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>841.9057755225589</v>
       </c>
       <c r="C18" t="n">
-        <v>789.6041262295092</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="D18" t="n">
         <v>667.4527462414319</v>
@@ -5601,16 +5603,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N18" t="n">
-        <v>712.019119383956</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5695,22 +5697,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
         <v>19.28114311021272</v>
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>274.7999090013961</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5774,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>942.6594228129348</v>
       </c>
       <c r="S20" t="n">
-        <v>953.9655401424092</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T20" t="n">
-        <v>953.9655401424092</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V20" t="n">
-        <v>953.9655401424092</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>710.516763498309</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="C21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="D21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="E21" t="n">
-        <v>417.9156620931329</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="F21" t="n">
-        <v>271.3811041200179</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="G21" t="n">
-        <v>132.6502787026334</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5838,43 +5840,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>577.1531170985884</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>577.1531170985884</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>577.1531170985884</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>577.1531170985884</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
       <c r="Y21" t="n">
-        <v>577.1531170985884</v>
+        <v>339.3395341116723</v>
       </c>
     </row>
     <row r="22">
@@ -5884,31 +5886,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
         <v>19.28114311021272</v>
@@ -5935,25 +5937,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>506.1786963984129</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>344.6327430815143</v>
+        <v>111.2071172886402</v>
       </c>
       <c r="C24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>170.1797138003873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="X24" t="n">
-        <v>720.6083788665362</v>
+        <v>318.9674160535941</v>
       </c>
       <c r="Y24" t="n">
-        <v>512.8480801015824</v>
+        <v>111.2071172886402</v>
       </c>
     </row>
     <row r="25">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>315.6850394389064</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C26" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I26" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W26" t="n">
-        <v>802.5825927271064</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>802.5825927271064</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y26" t="n">
-        <v>559.1338160830064</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>307.8574406365461</v>
+        <v>243.4632136343998</v>
       </c>
       <c r="C27" t="n">
-        <v>133.4044113554191</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="D27" t="n">
-        <v>133.4044113554191</v>
+        <v>69.01018435327282</v>
       </c>
       <c r="E27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6318,37 +6320,37 @@
         <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W27" t="n">
-        <v>891.6845766271009</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X27" t="n">
-        <v>683.8330764215681</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="Y27" t="n">
-        <v>476.0727776566142</v>
+        <v>411.6785506544679</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T29" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>274.0360370837871</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>30.58726043968704</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>125.0774898247174</v>
+        <v>486.820788837921</v>
       </c>
       <c r="C30" t="n">
-        <v>125.0774898247174</v>
+        <v>312.367759556794</v>
       </c>
       <c r="D30" t="n">
-        <v>125.0774898247174</v>
+        <v>312.367759556794</v>
       </c>
       <c r="E30" t="n">
-        <v>125.0774898247174</v>
+        <v>312.367759556794</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>312.367759556794</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I30" t="n">
         <v>20.03527576299844</v>
@@ -6546,13 +6548,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>383.2428491569326</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
-        <v>621.8469951458151</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O30" t="n">
         <v>781.4136778972854</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>360.2295980564601</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V30" t="n">
-        <v>125.0774898247174</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W30" t="n">
-        <v>125.0774898247174</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X30" t="n">
-        <v>125.0774898247174</v>
+        <v>655.0361258579891</v>
       </c>
       <c r="Y30" t="n">
-        <v>125.0774898247174</v>
+        <v>655.0361258579891</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L31" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M31" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N31" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="C32" t="n">
+        <v>720.6083788665362</v>
+      </c>
+      <c r="D32" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="E32" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D32" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E32" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T32" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U32" t="n">
-        <v>577.2332497330343</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y32" t="n">
-        <v>333.7844730889342</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>168.215552771464</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C33" t="n">
-        <v>168.215552771464</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6783,10 +6785,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>544.2823899970649</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X33" t="n">
-        <v>336.430889791532</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y33" t="n">
-        <v>336.430889791532</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6914,10 +6916,10 @@
         <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6959,10 +6961,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T35" t="n">
         <v>749.627473042513</v>
@@ -6990,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>193.7341723913397</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,7 +7025,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
         <v>542.809531908403</v>
@@ -7038,28 +7040,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>964.0571555106362</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>964.0571555106362</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>720.6083788665362</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X36" t="n">
-        <v>569.7098081763618</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y36" t="n">
-        <v>361.9495094114078</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="37">
@@ -7111,10 +7113,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q37" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R37" t="n">
         <v>19.28114311021272</v>
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7202,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U38" t="n">
-        <v>964.0571555106362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>495.259035872464</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>419.9752190668252</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C39" t="n">
-        <v>419.9752190668252</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D39" t="n">
-        <v>419.9752190668252</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E39" t="n">
-        <v>419.9752190668252</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
         <v>20.03527576299844</v>
@@ -7254,22 +7256,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
-        <v>496.4894350879777</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7278,25 +7280,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>540.4527673852406</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>540.4527673852406</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="W39" t="n">
-        <v>627.7355178317791</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X39" t="n">
-        <v>627.7355178317791</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y39" t="n">
-        <v>419.9752190668252</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>877.0247885897328</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="R40" t="n">
-        <v>877.0247885897328</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="S40" t="n">
-        <v>877.0247885897328</v>
+        <v>66.78106667958005</v>
       </c>
       <c r="T40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>877.0247885897328</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>16.44142755506243</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J41" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L41" t="n">
-        <v>176.2910403306274</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O41" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R41" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>431.628992076841</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>224.0352098159517</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>16.44142755506243</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W41" t="n">
-        <v>16.44142755506243</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X41" t="n">
-        <v>16.44142755506243</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.44142755506243</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.9061343838161</v>
+        <v>284.0338015341832</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N42" t="n">
-        <v>639.4279001397708</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O42" t="n">
-        <v>639.4279001397708</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q42" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>720.9018483060073</v>
+        <v>867.3980394897022</v>
       </c>
       <c r="S42" t="n">
-        <v>720.9018483060073</v>
+        <v>693.9806949403711</v>
       </c>
       <c r="T42" t="n">
-        <v>518.7152536647734</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="U42" t="n">
-        <v>518.7152536647734</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="V42" t="n">
-        <v>518.7152536647734</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="W42" t="n">
-        <v>518.7152536647734</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="X42" t="n">
-        <v>518.7152536647734</v>
+        <v>491.7941002991371</v>
       </c>
       <c r="Y42" t="n">
-        <v>311.1214714038841</v>
+        <v>284.0338015341832</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>43.75555256277541</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>82.94359075499759</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>126.6344414104339</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.9737180453332</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.44142755506243</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C44" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="D44" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E44" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G44" t="n">
-        <v>16.44142755506243</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="H44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>119.4564334659848</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>299.5322850506434</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>502.994951044541</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>811.9797623848946</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S44" t="n">
-        <v>639.2227743377304</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W44" t="n">
-        <v>431.628992076841</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X44" t="n">
-        <v>431.628992076841</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y44" t="n">
-        <v>224.0352098159517</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>98.12050152333947</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C45" t="n">
-        <v>98.12050152333947</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D45" t="n">
-        <v>98.12050152333947</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E45" t="n">
-        <v>98.12050152333947</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F45" t="n">
-        <v>98.12050152333947</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G45" t="n">
-        <v>98.12050152333947</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I45" t="n">
-        <v>16.44142755506243</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
-        <v>16.44142755506243</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>570.0333416264414</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>931.1958123873903</v>
       </c>
       <c r="S45" t="n">
-        <v>720.9018483060073</v>
+        <v>931.1958123873903</v>
       </c>
       <c r="T45" t="n">
-        <v>720.9018483060073</v>
+        <v>931.1958123873903</v>
       </c>
       <c r="U45" t="n">
-        <v>720.9018483060073</v>
+        <v>931.1958123873903</v>
       </c>
       <c r="V45" t="n">
-        <v>720.9018483060073</v>
+        <v>931.1958123873903</v>
       </c>
       <c r="W45" t="n">
-        <v>513.308066045118</v>
+        <v>687.7470357432903</v>
       </c>
       <c r="X45" t="n">
-        <v>305.7142837842288</v>
+        <v>479.8955355377576</v>
       </c>
       <c r="Y45" t="n">
-        <v>98.12050152333947</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y46" t="n">
-        <v>822.0713777531216</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7981,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>289.278943979937</v>
       </c>
       <c r="M2" t="n">
-        <v>435.8640776655532</v>
+        <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>280.7634702223003</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>191.3539679843088</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>192.0669087898239</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>193.4844405477277</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>193.4943030959713</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8222,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8298,22 +8300,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>290.282096632709</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8690,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,16 +8774,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>348.1140888827248</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8933,16 +8935,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,19 +9011,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O15" t="n">
-        <v>348.1140888827248</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P15" t="n">
-        <v>134.4691888741278</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9249,19 +9251,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>231.1529892133072</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9401,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O21" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9966,13 +9968,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>312.5030352242461</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10194,16 +10196,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>303.774711870172</v>
+        <v>312.5030352242461</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10431,13 +10433,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>368.5691090902119</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10671,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>295.1552315763977</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,16 +11062,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11142,16 +11144,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N42" t="n">
-        <v>222.9614904056321</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,10 +11305,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>310.4448022570774</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11379,19 +11381,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>152.8659767558044</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23312,7 +23314,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23321,10 +23323,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>164.269800956783</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>40.08552890911985</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23394,16 +23396,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
@@ -23513,7 +23515,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23552,13 +23554,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>164.2132562401886</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23574,7 +23576,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -23589,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23750,7 +23752,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -23777,10 +23779,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>128.6853625704253</v>
       </c>
       <c r="S17" t="n">
-        <v>189.2921341996816</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23808,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>45.60331746167078</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>26.5151993764422</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23935,7 +23937,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
         <v>224.0165980369723</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23969,7 +23971,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>174.9274946967228</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23984,13 +23986,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24054,19 +24056,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>22.11778715967723</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>88.97073592337523</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
         <v>225.9413820809748</v>
@@ -24108,10 +24110,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24151,7 +24153,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24206,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24248,7 +24250,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,13 +24262,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>128.71681180081</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>81.70178455167252</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24300,13 +24302,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>52.98908343089657</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -24443,10 +24445,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D26" t="n">
-        <v>314.2067624875478</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24464,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24485,10 +24487,10 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24500,16 +24502,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24528,7 +24530,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>108.4133296247714</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24537,13 +24539,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24582,10 +24584,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>180.0461300662196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>194.5906600982693</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24722,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
-        <v>358.5380445222895</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24768,16 +24770,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>41.0774204722821</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>49.56643529526458</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24895,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24914,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>312.3898338622054</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,16 +24961,16 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24993,31 +24995,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>54.71802040920606</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25047,19 +25049,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>68.91855245190925</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25075,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25154,13 +25156,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25199,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>10.33136403017744</v>
@@ -25230,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
         <v>147.4450655646388</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X36" t="n">
-        <v>56.38340022020478</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25351,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25391,7 +25393,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25409,7 +25411,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25442,22 +25444,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>350.0031652919052</v>
       </c>
       <c r="Y38" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25479,16 +25481,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>88.10426277371759</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,10 +25520,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>52.63738970716091</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
@@ -25536,7 +25538,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25549,7 +25551,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2218967649542</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25600,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>180.9206650946078</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25637,7 +25639,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
@@ -25676,16 +25678,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>27.99995220500799</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="42">
@@ -25704,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>47.50843922784962</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,7 +25727,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -25752,10 +25754,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>4.465309291918487</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25804,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189029</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25880,7 +25882,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>339.4748021157671</v>
+        <v>137.1801156868699</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25913,7 +25915,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>37.99065141955279</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
@@ -25925,13 +25927,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25956,16 +25958,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>31.3731610079022</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>67.6251044606297</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26004,13 +26006,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
-        <v>0.2551407651970692</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26038,7 +26040,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H46" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
         <v>155.4504749272583</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>999770.3091554757</v>
+        <v>986920.1789950435</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>999770.3091554757</v>
+        <v>1002771.085345395</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>999770.3091554757</v>
+        <v>1002771.085345395</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>418414.8500318924</v>
+        <v>440742.5968235338</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>418414.8500318924</v>
+        <v>440742.5968235338</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440742.5968235338</v>
+        <v>440742.5968235336</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>418414.8500318923</v>
+        <v>440742.5968235338</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>418414.8500318924</v>
+        <v>440742.5968235338</v>
       </c>
     </row>
   </sheetData>
@@ -26311,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.0619185702</v>
+        <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="F2" t="n">
-        <v>189309.1702019179</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="G2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="H2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="I2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
         <v>199392.8070375987</v>
       </c>
       <c r="K2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="L2" t="n">
         <v>199392.8070375987</v>
@@ -26347,13 +26349,13 @@
         <v>199392.8070375988</v>
       </c>
       <c r="N2" t="n">
+        <v>199392.8070375987</v>
+      </c>
+      <c r="O2" t="n">
         <v>199392.8070375988</v>
       </c>
-      <c r="O2" t="n">
-        <v>189309.170201918</v>
-      </c>
       <c r="P2" t="n">
-        <v>189309.170201918</v>
+        <v>199392.8070375988</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68873.75658168984</v>
+        <v>17933.27925940139</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>60576.32218666811</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>9729.042974167098</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>53772.51089020943</v>
+        <v>14001.23214027929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>48256.95293363261</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344263.9595179307</v>
+        <v>372380.6912773508</v>
       </c>
       <c r="C4" t="n">
-        <v>344263.9595179307</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="D4" t="n">
-        <v>344263.9595179308</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>55726.08537048259</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="F4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="G4" t="n">
+        <v>58752.58249917302</v>
+      </c>
+      <c r="H4" t="n">
+        <v>58752.58249917302</v>
+      </c>
+      <c r="I4" t="n">
         <v>58752.58249917301</v>
-      </c>
-      <c r="H4" t="n">
-        <v>58752.58249917301</v>
-      </c>
-      <c r="I4" t="n">
-        <v>58752.58249917302</v>
       </c>
       <c r="J4" t="n">
         <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>58752.582499173</v>
+        <v>58752.58249917301</v>
       </c>
       <c r="L4" t="n">
         <v>58752.58249917302</v>
@@ -26451,13 +26453,13 @@
         <v>58752.58249917302</v>
       </c>
       <c r="N4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="O4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="P4" t="n">
-        <v>55726.0853704826</v>
+        <v>58752.58249917302</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>46123.08494184745</v>
+        <v>36881.16176380494</v>
       </c>
       <c r="C5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>46123.08494184745</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
         <v>14653.66876376167</v>
@@ -26506,10 +26508,10 @@
         <v>14653.66876376167</v>
       </c>
       <c r="O5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>12495.48494184745</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26521,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>33364.26087710209</v>
+        <v>65429.92961801306</v>
       </c>
       <c r="C6" t="n">
-        <v>102238.0174587919</v>
+        <v>46069.3608345078</v>
       </c>
       <c r="D6" t="n">
-        <v>102238.017458792</v>
+        <v>106645.6830211758</v>
       </c>
       <c r="E6" t="n">
-        <v>121087.5998895879</v>
+        <v>125986.555774664</v>
       </c>
       <c r="F6" t="n">
-        <v>121087.5998895879</v>
+        <v>125986.5557746641</v>
       </c>
       <c r="G6" t="n">
-        <v>116257.512800497</v>
+        <v>125986.5557746641</v>
       </c>
       <c r="H6" t="n">
         <v>125986.5557746641</v>
       </c>
       <c r="I6" t="n">
-        <v>125986.5557746641</v>
+        <v>125986.555774664</v>
       </c>
       <c r="J6" t="n">
-        <v>72214.0448844546</v>
+        <v>111985.3236343848</v>
       </c>
       <c r="K6" t="n">
-        <v>125986.5557746641</v>
+        <v>77729.60284103148</v>
       </c>
       <c r="L6" t="n">
         <v>125986.555774664</v>
@@ -26555,13 +26557,13 @@
         <v>125986.5557746641</v>
       </c>
       <c r="N6" t="n">
+        <v>125986.555774664</v>
+      </c>
+      <c r="O6" t="n">
         <v>125986.5557746641</v>
       </c>
-      <c r="O6" t="n">
-        <v>121087.5998895879</v>
-      </c>
       <c r="P6" t="n">
-        <v>121087.5998895879</v>
+        <v>125986.5557746641</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
         <v>241.0142888776591</v>
@@ -26826,10 +26828,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>187.5017598677093</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>35.49644443937865</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>301.1705126107332</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>237.8052177150865</v>
+        <v>385.0356469194276</v>
       </c>
       <c r="G2" t="n">
-        <v>209.7848930768546</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>96.35658893119992</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27445,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27473,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>58.72291522654671</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>35.88410384146533</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>46.64530514269338</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>125.2959268781319</v>
       </c>
       <c r="T3" t="n">
-        <v>86.21436345804264</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27540,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>95.1029440082626</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>92.92143363661941</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>144.2500710184521</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27561,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690797</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27619,16 +27621,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.358201303431</v>
+        <v>174.5457301614682</v>
       </c>
       <c r="G5" t="n">
-        <v>244.2733193484424</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27639,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,13 +27660,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27692,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27707,10 +27709,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -27749,19 +27751,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>43.24093381563972</v>
       </c>
       <c r="Y6" t="n">
-        <v>71.82408984808211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>68.91450442245211</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27795,7 +27797,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27813,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>213.1087345205756</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27856,13 +27858,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>253.1079552302216</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27895,25 +27897,25 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>131.1616962950334</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27929,22 +27931,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>34.82754153414575</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27998,7 +28000,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>69.77770916128173</v>
       </c>
     </row>
     <row r="10">
@@ -28032,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -28059,10 +28061,10 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>184.188810568277</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
@@ -34699,22 +34701,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M2" t="n">
-        <v>205.5178444382804</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570938</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>51.35040662570936</v>
       </c>
       <c r="N3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34942,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N5" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35018,22 +35020,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>205.5178444382804</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="N6" t="n">
-        <v>12.72573192223801</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>148.1480627106907</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,16 +35494,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>205.5178444382804</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35653,16 +35655,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,19 +35731,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O15" t="n">
-        <v>205.5178444382804</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P15" t="n">
-        <v>0.494781459797586</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35969,19 +35971,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O18" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N18" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,19 +36208,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N21" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O21" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,16 +36916,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>161.1784674257276</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="P30" t="n">
         <v>184.4883612256069</v>
@@ -37151,13 +37153,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>226.4350751681936</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37391,10 +37393,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>161.1808241620674</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,16 +37782,16 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N41" t="n">
-        <v>205.5178444382804</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37862,16 +37864,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N42" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,10 +38025,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>81.03173866048648</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38099,19 +38101,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>21.52426467247106</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_7_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>880930.9892495372</v>
+        <v>812079.6928080998</v>
       </c>
     </row>
     <row r="7">
@@ -661,16 +661,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>3.015063725959907</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>21.84039882228386</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -682,7 +682,7 @@
         <v>53.51252900994975</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,17 +785,17 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>46.38724422570589</v>
       </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -803,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
     </row>
     <row r="4">
@@ -822,13 +822,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.170977004479174</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.170977004479174</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>232.3303155802432</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>88.93311775391584</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -940,16 +940,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>11.39124070095735</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>162.5320513878378</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1138,22 +1138,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>220.8837963815379</v>
+      </c>
+      <c r="F8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>6.876045741711437</v>
-      </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>218.0792724223796</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,25 +1262,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>135.9049866160226</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>230.2038249569697</v>
       </c>
       <c r="X11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>112.7685198567122</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>49.31110394229523</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1511,10 +1511,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,31 +1606,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>120.9273370453295</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1651,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1685,31 +1685,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>153.7284669830015</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>84.97365353379641</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281241</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>21.18375537072436</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>241.0142888776591</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,25 +1922,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>120.9298661881966</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -1976,16 +1976,16 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>146.1753613169449</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2083,13 +2083,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2128,20 +2128,20 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>11.19305615617957</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
+        <v>52.42556848774752</v>
+      </c>
+      <c r="V20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="21">
@@ -2174,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>115.2257300035334</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>84.0572199420196</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>241.0142888776591</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2317,73 +2317,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D23" t="n">
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>212.2853856434421</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>91.00671443664322</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>138.369928292314</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2554,17 +2554,17 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>190.3453970742847</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C26" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,22 +2633,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>50.96518761078043</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>49.23175083062949</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W29" t="n">
         <v>241.0142888776591</v>
@@ -2860,7 +2860,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2870,10 +2870,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>87.77708186794605</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>15.34175039594457</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3009,10 +3009,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3034,25 +3034,25 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>21.85442600983729</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>92.72704515543269</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>136.8640974686391</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -3161,13 +3161,13 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -3189,52 +3189,52 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3268,20 +3268,20 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -3325,10 +3325,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>3.26531605719669</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3353,13 +3353,13 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.05536780993414</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>3.833957768458675</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3465,13 +3465,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3520,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,22 +3556,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>19.7279353865638</v>
-      </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="39">
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>147.5273389876607</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>165.3975302382618</v>
       </c>
     </row>
     <row r="40">
@@ -3705,16 +3705,16 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>47.02492433367365</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3739,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="42">
@@ -3821,16 +3821,16 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>95.69252486072465</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>190.0895652342763</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3918,34 +3918,34 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="H44" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,16 +4058,16 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
@@ -4076,7 +4076,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>32.53272969201343</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4112,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>20.02544070929549</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4309,25 +4309,25 @@
         <v>149.9054410655621</v>
       </c>
       <c r="C2" t="n">
-        <v>149.9054410655621</v>
+        <v>146.859922150451</v>
       </c>
       <c r="D2" t="n">
-        <v>95.85238145955221</v>
+        <v>146.859922150451</v>
       </c>
       <c r="E2" t="n">
-        <v>95.85238145955221</v>
+        <v>92.8068625444412</v>
       </c>
       <c r="F2" t="n">
-        <v>73.79137254815437</v>
+        <v>85.86136179523773</v>
       </c>
       <c r="G2" t="n">
-        <v>58.33406192680583</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="H2" t="n">
-        <v>58.33406192680583</v>
+        <v>70.40405117388919</v>
       </c>
       <c r="I2" t="n">
-        <v>4.28100232079598</v>
+        <v>16.35099156787933</v>
       </c>
       <c r="J2" t="n">
         <v>4.28100232079598</v>
@@ -4336,10 +4336,10 @@
         <v>57.25840604064623</v>
       </c>
       <c r="L2" t="n">
-        <v>110.2358097604965</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="M2" t="n">
-        <v>163.2132134803467</v>
+        <v>161.0727123199487</v>
       </c>
       <c r="N2" t="n">
         <v>214.050116039799</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="C3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="D3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="E3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="F3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="G3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="H3" t="n">
-        <v>59.08819457959154</v>
+        <v>5.035134973581694</v>
       </c>
       <c r="I3" t="n">
         <v>5.035134973581694</v>
@@ -4412,34 +4412,34 @@
         <v>4.28100232079598</v>
       </c>
       <c r="K3" t="n">
-        <v>57.25840604064623</v>
+        <v>4.28100232079598</v>
       </c>
       <c r="L3" t="n">
-        <v>110.2358097604965</v>
+        <v>55.11790488024824</v>
       </c>
       <c r="M3" t="n">
-        <v>161.0727123199487</v>
+        <v>108.0953086000985</v>
       </c>
       <c r="N3" t="n">
         <v>161.0727123199487</v>
       </c>
       <c r="O3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="P3" t="n">
-        <v>161.0727123199487</v>
+        <v>214.050116039799</v>
       </c>
       <c r="Q3" t="n">
         <v>214.050116039799</v>
       </c>
       <c r="R3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="S3" t="n">
+        <v>214.050116039799</v>
+      </c>
+      <c r="T3" t="n">
         <v>159.9970564337892</v>
-      </c>
-      <c r="S3" t="n">
-        <v>113.1412541856014</v>
-      </c>
-      <c r="T3" t="n">
-        <v>113.1412541856014</v>
       </c>
       <c r="U3" t="n">
         <v>113.1412541856014</v>
@@ -4451,10 +4451,10 @@
         <v>113.1412541856014</v>
       </c>
       <c r="X3" t="n">
-        <v>113.1412541856014</v>
+        <v>59.08819457959154</v>
       </c>
       <c r="Y3" t="n">
-        <v>113.1412541856014</v>
+        <v>5.035134973581694</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="C4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="D4" t="n">
-        <v>82.01130316959576</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="E4" t="n">
-        <v>27.95824356358591</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="F4" t="n">
         <v>26.77543850855644</v>
@@ -4509,31 +4509,31 @@
         <v>136.0643627756056</v>
       </c>
       <c r="Q4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="R4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="S4" t="n">
-        <v>136.0643627756056</v>
+        <v>82.01130316959576</v>
       </c>
       <c r="T4" t="n">
-        <v>136.0643627756056</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="U4" t="n">
-        <v>136.0643627756056</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="V4" t="n">
-        <v>136.0643627756056</v>
+        <v>27.95824356358591</v>
       </c>
       <c r="W4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="X4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
       <c r="Y4" t="n">
-        <v>136.0643627756056</v>
+        <v>26.77543850855644</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>509.4769954460863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C5" t="n">
-        <v>509.4769954460863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D5" t="n">
-        <v>509.4769954460863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E5" t="n">
-        <v>509.4769954460863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4588,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>752.9257720901863</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>509.4769954460863</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.28114311021272</v>
+        <v>649.1947276839472</v>
       </c>
       <c r="C6" t="n">
-        <v>19.28114311021272</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D6" t="n">
-        <v>19.28114311021272</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E6" t="n">
-        <v>19.28114311021272</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
         <v>19.28114311021272</v>
@@ -4655,16 +4655,16 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V6" t="n">
-        <v>634.6640077999109</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W6" t="n">
-        <v>391.2152311558108</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X6" t="n">
-        <v>227.0414418751666</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y6" t="n">
-        <v>19.28114311021272</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4743,34 +4743,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>297.2027203719481</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C8" t="n">
-        <v>297.2027203719481</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>742.8341567219593</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>517.4848137278872</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>297.2027203719481</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>297.2027203719481</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y8" t="n">
-        <v>297.2027203719481</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>557.3945247848451</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>382.9414955037181</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,22 +4886,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N9" t="n">
-        <v>851.8101010141643</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O9" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>862.8876260635219</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>862.8876260635219</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W9" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X9" t="n">
-        <v>862.8876260635219</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y9" t="n">
-        <v>725.6098618049132</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L10" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M10" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N10" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H11" t="n">
         <v>19.28114311021272</v>
@@ -5071,22 +5071,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U11" t="n">
-        <v>720.6083788665362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="V11" t="n">
-        <v>720.6083788665362</v>
+        <v>495.259035872464</v>
       </c>
       <c r="W11" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>69.84447166430675</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C12" t="n">
-        <v>69.84447166430675</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D12" t="n">
-        <v>69.84447166430675</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E12" t="n">
-        <v>69.84447166430675</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F12" t="n">
-        <v>69.84447166430675</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G12" t="n">
-        <v>69.84447166430675</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H12" t="n">
-        <v>69.84447166430675</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5126,13 +5126,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N12" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O12" t="n">
         <v>712.019119383956</v>
@@ -5144,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U12" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V12" t="n">
-        <v>728.9050472788936</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="W12" t="n">
-        <v>485.4562706347935</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="X12" t="n">
-        <v>277.6047704292607</v>
+        <v>454.3181732824481</v>
       </c>
       <c r="Y12" t="n">
-        <v>69.84447166430675</v>
+        <v>246.5578745174942</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
         <v>19.28114311021272</v>
@@ -5238,13 +5238,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="C14" t="n">
-        <v>477.1596022224361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="D14" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="E14" t="n">
-        <v>233.7108255783361</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="F14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5299,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X14" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y14" t="n">
-        <v>720.6083788665362</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="15">
@@ -5333,49 +5333,49 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>964.0571555106362</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C15" t="n">
-        <v>789.6041262295092</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D15" t="n">
-        <v>640.669716568258</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E15" t="n">
-        <v>481.4322615628025</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F15" t="n">
-        <v>334.8977035896875</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G15" t="n">
-        <v>196.166878172303</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H15" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O15" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5393,16 +5393,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W15" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X15" t="n">
-        <v>964.0571555106362</v>
+        <v>521.0535470733607</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>313.2932483084068</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5466,22 +5466,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>942.6594228129348</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>731.528039392485</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W17" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y17" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>841.9057755225589</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C18" t="n">
-        <v>667.4527462414319</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H18" t="n">
         <v>109.5807722530562</v>
@@ -5597,22 +5597,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N18" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5624,22 +5624,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>816.40527539251</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>588.181657128899</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>353.0295488971563</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="19">
@@ -5649,7 +5649,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C19" t="n">
         <v>19.28114311021272</v>
@@ -5715,10 +5715,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="X19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="20">
@@ -5731,10 +5731,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
         <v>19.28114311021272</v>
@@ -5776,25 +5776,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>942.6594228129348</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>731.528039392485</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
+        <v>802.5825927271064</v>
+      </c>
+      <c r="U20" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="V20" t="n">
         <v>506.1786963984129</v>
       </c>
-      <c r="U20" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="V20" t="n">
-        <v>262.7299197543128</v>
-      </c>
       <c r="W20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X20" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
         <v>262.7299197543128</v>
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>222.9499078454769</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5843,13 +5843,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5864,19 +5864,19 @@
         <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W21" t="n">
-        <v>547.1910343172051</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.3395341116723</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5934,7 +5934,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
         <v>19.28114311021272</v>
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6022,7 +6022,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V23" t="n">
         <v>720.6083788665362</v>
@@ -6031,10 +6031,10 @@
         <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6044,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.2071172886402</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6104,16 +6104,16 @@
         <v>562.4161926976942</v>
       </c>
       <c r="V24" t="n">
-        <v>562.4161926976942</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W24" t="n">
-        <v>318.9674160535941</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="X24" t="n">
-        <v>318.9674160535941</v>
+        <v>187.4964801302808</v>
       </c>
       <c r="Y24" t="n">
-        <v>111.2071172886402</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="25">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>243.4632136343998</v>
+        <v>209.491956013234</v>
       </c>
       <c r="C27" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D27" t="n">
-        <v>69.01018435327282</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G27" t="n">
         <v>19.28114311021272</v>
@@ -6314,16 +6314,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N27" t="n">
-        <v>613.2059550252818</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O27" t="n">
-        <v>851.8101010141643</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6335,22 +6335,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>862.8876260635219</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>619.4388494194218</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="X27" t="n">
-        <v>619.4388494194218</v>
+        <v>417.2522547781879</v>
       </c>
       <c r="Y27" t="n">
-        <v>411.6785506544679</v>
+        <v>209.491956013234</v>
       </c>
     </row>
     <row r="28">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6518,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>486.820788837921</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="C30" t="n">
-        <v>312.367759556794</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="D30" t="n">
-        <v>312.367759556794</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="E30" t="n">
-        <v>312.367759556794</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="F30" t="n">
-        <v>312.367759556794</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G30" t="n">
-        <v>223.7040404982626</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H30" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>374.6018090363993</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>125.0774898247174</v>
       </c>
       <c r="W30" t="n">
-        <v>862.8876260635219</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="X30" t="n">
-        <v>655.0361258579891</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="Y30" t="n">
-        <v>655.0361258579891</v>
+        <v>109.5807722530562</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6727,25 +6727,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y32" t="n">
-        <v>720.6083788665362</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="C33" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="D33" t="n">
-        <v>668.2068788942177</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="E33" t="n">
-        <v>508.9694238887622</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="F33" t="n">
         <v>362.4348659156472</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
         <v>712.019119383956</v>
@@ -6809,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V33" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W33" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X33" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="Y33" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>960.7588564629629</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.03527576299844</v>
+        <v>203.827050448935</v>
       </c>
       <c r="C36" t="n">
-        <v>20.03527576299844</v>
+        <v>203.827050448935</v>
       </c>
       <c r="D36" t="n">
-        <v>20.03527576299844</v>
+        <v>203.827050448935</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>44.58959544347954</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>44.58959544347954</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7043,25 +7043,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W36" t="n">
-        <v>20.03527576299844</v>
+        <v>619.4388494194218</v>
       </c>
       <c r="X36" t="n">
-        <v>20.03527576299844</v>
+        <v>411.587349213889</v>
       </c>
       <c r="Y36" t="n">
-        <v>20.03527576299844</v>
+        <v>203.827050448935</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7113,34 +7113,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G38" t="n">
-        <v>231.8830517671884</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="H38" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
         <v>19.28114311021272</v>
@@ -7204,22 +7204,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>475.3318284112885</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y38" t="n">
-        <v>475.3318284112885</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C39" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>305.3006591534979</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>540.4527673852406</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>540.4527673852406</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V39" t="n">
-        <v>305.3006591534979</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="W39" t="n">
-        <v>305.3006591534979</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="X39" t="n">
-        <v>305.3006591534979</v>
+        <v>354.5646924921614</v>
       </c>
       <c r="Y39" t="n">
-        <v>305.3006591534979</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="40">
@@ -7353,13 +7353,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>66.78106667958005</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S40" t="n">
-        <v>66.78106667958005</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T40" t="n">
         <v>19.28114311021272</v>
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="C41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="D41" t="n">
+        <v>749.627473042513</v>
+      </c>
+      <c r="E41" t="n">
+        <v>506.1786963984129</v>
+      </c>
+      <c r="F41" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="D41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="E41" t="n">
-        <v>262.7299197543128</v>
-      </c>
-      <c r="F41" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G41" t="n">
         <v>19.28114311021272</v>
@@ -7447,16 +7447,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="W41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="X41" t="n">
+        <v>964.0571555106362</v>
+      </c>
+      <c r="Y41" t="n">
         <v>749.627473042513</v>
-      </c>
-      <c r="W41" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="X41" t="n">
-        <v>749.627473042513</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>284.0338015341832</v>
+        <v>564.287194892878</v>
       </c>
       <c r="C42" t="n">
-        <v>109.5807722530562</v>
+        <v>564.287194892878</v>
       </c>
       <c r="D42" t="n">
-        <v>109.5807722530562</v>
+        <v>415.3527852316268</v>
       </c>
       <c r="E42" t="n">
-        <v>109.5807722530562</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F42" t="n">
         <v>109.5807722530562</v>
@@ -7499,43 +7499,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q42" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R42" t="n">
-        <v>867.3980394897022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>693.9806949403711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>491.7941002991371</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>491.7941002991371</v>
+        <v>772.0474936578319</v>
       </c>
       <c r="V42" t="n">
-        <v>491.7941002991371</v>
+        <v>772.0474936578319</v>
       </c>
       <c r="W42" t="n">
-        <v>491.7941002991371</v>
+        <v>772.0474936578319</v>
       </c>
       <c r="X42" t="n">
-        <v>491.7941002991371</v>
+        <v>772.0474936578319</v>
       </c>
       <c r="Y42" t="n">
-        <v>284.0338015341832</v>
+        <v>564.287194892878</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
         <v>19.28114311021272</v>
@@ -7593,28 +7593,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.067986854209</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C44" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D44" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E44" t="n">
-        <v>223.6192102101089</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F44" t="n">
-        <v>223.6192102101089</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="G44" t="n">
-        <v>223.6192102101089</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
         <v>19.28114311021272</v>
@@ -7669,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T44" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X44" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y44" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>272.1352367728036</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="C45" t="n">
-        <v>272.1352367728036</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="D45" t="n">
-        <v>272.1352367728036</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E45" t="n">
-        <v>272.1352367728036</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>272.1352367728036</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>133.4044113554191</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
         <v>20.03527576299844</v>
@@ -7733,46 +7733,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N45" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O45" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>931.1958123873903</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S45" t="n">
-        <v>931.1958123873903</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T45" t="n">
-        <v>931.1958123873903</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U45" t="n">
-        <v>931.1958123873903</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="V45" t="n">
-        <v>931.1958123873903</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="W45" t="n">
-        <v>687.7470357432903</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="X45" t="n">
-        <v>479.8955355377576</v>
+        <v>842.6599081753446</v>
       </c>
       <c r="Y45" t="n">
-        <v>272.1352367728036</v>
+        <v>842.6599081753446</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T46" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7984,13 +7984,13 @@
         <v>273.6023800549303</v>
       </c>
       <c r="L2" t="n">
-        <v>289.278943979937</v>
+        <v>287.1168215956966</v>
       </c>
       <c r="M2" t="n">
         <v>283.8587622372225</v>
       </c>
       <c r="N2" t="n">
-        <v>280.7634702223003</v>
+        <v>282.9255926065406</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
@@ -8060,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>191.3539679843088</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>192.0669087898239</v>
+        <v>189.9047864055835</v>
       </c>
       <c r="M3" t="n">
-        <v>193.4844405477277</v>
+        <v>195.6465629319681</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>184.8542410932831</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>196.1087734543942</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4943030959713</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N9" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,7 +8692,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
@@ -8774,7 +8774,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>229.6373335557741</v>
       </c>
       <c r="M12" t="n">
         <v>383.1483227996774</v>
@@ -8783,7 +8783,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O15" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9491,7 +9491,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>301.248502863135</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9962,19 +9962,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>255.5148970497678</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>177.2597568922521</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>312.5030352242461</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10430,19 +10430,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10904,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11147,19 +11147,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M45" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -23275,7 +23275,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
@@ -23311,22 +23311,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>119.0371437604433</v>
       </c>
       <c r="X11" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>53.76466379315518</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -23354,13 +23354,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>40.08552890911985</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,10 +23384,10 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>200.1647286948216</v>
@@ -23399,10 +23399,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,31 +23494,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>218.5474650704376</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23539,16 +23539,16 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
@@ -23560,7 +23560,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23573,31 +23573,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>12.80471666686586</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>27.26179070270005</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U16" t="n">
         <v>286.3190293564909</v>
@@ -23737,7 +23737,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>152.3883551917857</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -23749,7 +23749,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>128.6853625704253</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V17" t="n">
         <v>86.73796959247585</v>
@@ -23797,7 +23797,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,25 +23810,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.60331746167078</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23864,16 +23864,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>53.98936737787668</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23955,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>92.52268780366913</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23971,13 +23971,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>138.6760617849701</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>10.33136403017744</v>
+        <v>198.920084420089</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24062,13 +24062,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>22.11778715967723</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24104,10 +24104,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>141.8841621389552</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>10.68069428326055</v>
@@ -24174,10 +24174,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24205,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24262,16 +24262,16 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>128.71681180081</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>81.70178455167252</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24344,16 +24344,16 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>113.3250548686056</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>141.7195527858215</v>
+        <v>192.3884445891959</v>
       </c>
       <c r="C26" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24521,22 +24521,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>121.7433113775353</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>108.4133296247714</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>112.2354442364965</v>
@@ -24575,7 +24575,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24682,7 +24682,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
@@ -24724,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24739,7 +24739,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W29" t="n">
         <v>108.226679839754</v>
@@ -24748,7 +24748,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,10 +24758,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24773,16 +24773,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>49.56643529526458</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>236.353232764975</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24897,10 +24897,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24922,25 +24922,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>142.3976559772408</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>339.4748021157671</v>
+        <v>317.6203761059298</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24976,7 +24976,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -25001,13 +25001,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>54.71802040920606</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>8.205114924744777</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25049,13 +25049,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -25077,7 +25077,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25122,7 +25122,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S34" t="n">
         <v>224.0165980369723</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25168,7 +25168,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25201,7 +25201,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>146.6038018839531</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25213,10 +25213,10 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>345.9756526602163</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -25241,13 +25241,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>112.2881493532765</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
@@ -25256,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>247.8610253924609</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25332,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25353,13 +25353,13 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S37" t="n">
         <v>224.0165980369723</v>
@@ -25408,10 +25408,10 @@
         <v>415.302737515135</v>
       </c>
       <c r="H38" t="n">
-        <v>339.4748021157671</v>
+        <v>127.189416472325</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -25444,10 +25444,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25456,10 +25456,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>350.0031652919052</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="39">
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -25481,10 +25481,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>52.63738970716091</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>40.28516553904254</v>
       </c>
     </row>
     <row r="40">
@@ -25593,16 +25593,16 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>180.9206650946078</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25636,13 +25636,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F41" t="n">
         <v>165.8617568640524</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25687,7 +25687,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25696,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="42">
@@ -25709,16 +25709,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.3435171632106</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>4.465309291918487</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>35.85181684669851</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25806,7 +25806,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I43" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
         <v>93.35918011667277</v>
@@ -25833,7 +25833,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S43" t="n">
         <v>224.0165980369723</v>
@@ -25867,7 +25867,7 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,13 +25876,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>203.0173518716929</v>
       </c>
       <c r="H44" t="n">
-        <v>137.1801156868699</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25909,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -25921,7 +25921,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,16 +25946,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25964,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>67.6251044606297</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26000,19 +26000,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9413820809748</v>
+        <v>205.9159413716793</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26070,7 +26070,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S46" t="n">
         <v>224.0165980369723</v>
@@ -26079,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>440742.5968235336</v>
+        <v>440742.5968235338</v>
       </c>
     </row>
     <row r="14">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.0619185702</v>
       </c>
       <c r="C2" t="n">
         <v>492625.06191857</v>
@@ -26337,7 +26337,7 @@
         <v>199392.8070375987</v>
       </c>
       <c r="J2" t="n">
-        <v>199392.8070375987</v>
+        <v>199392.8070375988</v>
       </c>
       <c r="K2" t="n">
         <v>199392.8070375987</v>
@@ -26346,7 +26346,7 @@
         <v>199392.8070375987</v>
       </c>
       <c r="M2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
       <c r="N2" t="n">
         <v>199392.8070375987</v>
@@ -26355,7 +26355,7 @@
         <v>199392.8070375988</v>
       </c>
       <c r="P2" t="n">
-        <v>199392.8070375988</v>
+        <v>199392.8070375987</v>
       </c>
     </row>
     <row r="3">
@@ -26420,7 +26420,7 @@
         <v>372380.6912773508</v>
       </c>
       <c r="C4" t="n">
-        <v>337698.1101336324</v>
+        <v>337698.1101336325</v>
       </c>
       <c r="D4" t="n">
         <v>337698.1101336324</v>
@@ -26435,16 +26435,16 @@
         <v>58752.58249917302</v>
       </c>
       <c r="H4" t="n">
+        <v>58752.58249917301</v>
+      </c>
+      <c r="I4" t="n">
         <v>58752.58249917302</v>
-      </c>
-      <c r="I4" t="n">
-        <v>58752.58249917301</v>
       </c>
       <c r="J4" t="n">
         <v>58752.58249917302</v>
       </c>
       <c r="K4" t="n">
-        <v>58752.58249917301</v>
+        <v>58752.58249917302</v>
       </c>
       <c r="L4" t="n">
         <v>58752.58249917302</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65429.92961801306</v>
+        <v>65429.92961801311</v>
       </c>
       <c r="C6" t="n">
-        <v>46069.3608345078</v>
+        <v>46069.36083450769</v>
       </c>
       <c r="D6" t="n">
-        <v>106645.6830211758</v>
+        <v>106645.6830211759</v>
       </c>
       <c r="E6" t="n">
-        <v>125986.555774664</v>
+        <v>113768.5451546235</v>
       </c>
       <c r="F6" t="n">
-        <v>125986.5557746641</v>
+        <v>113768.5451546236</v>
       </c>
       <c r="G6" t="n">
-        <v>125986.5557746641</v>
+        <v>113768.5451546235</v>
       </c>
       <c r="H6" t="n">
-        <v>125986.5557746641</v>
+        <v>113768.5451546236</v>
       </c>
       <c r="I6" t="n">
-        <v>125986.555774664</v>
+        <v>113768.5451546236</v>
       </c>
       <c r="J6" t="n">
-        <v>111985.3236343848</v>
+        <v>99767.31301434439</v>
       </c>
       <c r="K6" t="n">
-        <v>77729.60284103148</v>
+        <v>65511.59222099099</v>
       </c>
       <c r="L6" t="n">
-        <v>125986.555774664</v>
+        <v>113768.5451546235</v>
       </c>
       <c r="M6" t="n">
-        <v>125986.5557746641</v>
+        <v>113768.5451546235</v>
       </c>
       <c r="N6" t="n">
-        <v>125986.555774664</v>
+        <v>113768.5451546236</v>
       </c>
       <c r="O6" t="n">
-        <v>125986.5557746641</v>
+        <v>113768.5451546236</v>
       </c>
       <c r="P6" t="n">
-        <v>125986.5557746641</v>
+        <v>113768.5451546236</v>
       </c>
     </row>
   </sheetData>
@@ -27381,16 +27381,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>362.2578280450476</v>
       </c>
       <c r="D2" t="n">
-        <v>301.1705126107332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>328.417841062312</v>
       </c>
       <c r="F2" t="n">
-        <v>385.0356469194276</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27402,7 +27402,7 @@
         <v>156.9633605604562</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>58.72291522654671</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>35.88410384146533</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,16 +27505,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>46.64530514269338</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>125.2959268781319</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>146.6521996848718</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>179.5541378552689</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27523,10 +27523,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>152.2604561935277</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>152.1701667673546</v>
       </c>
     </row>
     <row r="4">
@@ -27542,13 +27542,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>95.1029440082626</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>92.92143363661941</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>144.2500710184521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.9909793584588</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>32.64951424174463</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -27590,7 +27590,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
-        <v>227.9455894282815</v>
+        <v>174.4330604183317</v>
       </c>
       <c r="U4" t="n">
         <v>286.3190293564909</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>285.3520213321118</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>174.5457301614682</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>326.3696197612192</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27660,16 +27660,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,19 +27694,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>155.14194294891</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
@@ -27718,7 +27718,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -27748,22 +27748,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>43.24093381563972</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27815,7 +27815,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>95.24412853877561</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27858,22 +27858,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>161.0465736907239</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>131.1616962950334</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27931,16 +27931,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27949,10 +27949,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,25 +27982,25 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>69.77770916128173</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28064,10 +28064,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -34704,13 +34704,13 @@
         <v>53.51252900994975</v>
       </c>
       <c r="L2" t="n">
-        <v>53.51252900994975</v>
+        <v>51.35040662570935</v>
       </c>
       <c r="M2" t="n">
         <v>53.51252900994975</v>
       </c>
       <c r="N2" t="n">
-        <v>51.35040662570938</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>51.35040662570935</v>
+      </c>
+      <c r="M3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>53.51252900994975</v>
       </c>
-      <c r="M3" t="n">
-        <v>51.35040662570936</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>53.51252900994975</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51252900994975</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
         <v>207.9338608153932</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O6" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35494,7 +35494,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="M12" t="n">
         <v>241.0142888776591</v>
@@ -35503,7 +35503,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
         <v>184.4883612256069</v>
@@ -35655,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
@@ -35737,16 +35737,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
+        <v>55.51629994036225</v>
+      </c>
+      <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O15" t="n">
-        <v>43.28534947792182</v>
-      </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,7 +35965,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>232.285965523585</v>
@@ -35974,7 +35974,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36211,7 +36211,7 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>169.9067907798017</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36682,19 +36682,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
+        <v>113.3808631277495</v>
+      </c>
+      <c r="N27" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>43.28534947792182</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>169.9067907798016</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N39" t="n">
-        <v>169.9067907798016</v>
-      </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38028,7 +38028,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
         <v>150.7019698410586</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M45" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
